--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H2">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J2">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N2">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O2">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P2">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q2">
-        <v>3180.089743362279</v>
+        <v>72.06176295393934</v>
       </c>
       <c r="R2">
-        <v>28620.80769026051</v>
+        <v>648.5558665854541</v>
       </c>
       <c r="S2">
-        <v>0.2634386121819035</v>
+        <v>0.1034916526573918</v>
       </c>
       <c r="T2">
-        <v>0.2634386121819036</v>
+        <v>0.1034916526573918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H3">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I3">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J3">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.965802</v>
       </c>
       <c r="O3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P3">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q3">
-        <v>38.70596374568866</v>
+        <v>17.26949504548933</v>
       </c>
       <c r="R3">
-        <v>348.353673711198</v>
+        <v>155.425455409404</v>
       </c>
       <c r="S3">
-        <v>0.003206401766997454</v>
+        <v>0.02480162168609044</v>
       </c>
       <c r="T3">
-        <v>0.003206401766997455</v>
+        <v>0.02480162168609044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>120.2294996666667</v>
+        <v>53.64296733333333</v>
       </c>
       <c r="H4">
-        <v>360.688499</v>
+        <v>160.928902</v>
       </c>
       <c r="I4">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="J4">
-        <v>0.2682304996487195</v>
+        <v>0.1405570576660657</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.477565</v>
       </c>
       <c r="O4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P4">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q4">
-        <v>19.13913366943722</v>
+        <v>8.539334564847778</v>
       </c>
       <c r="R4">
-        <v>172.252203024935</v>
+        <v>76.85401108363</v>
       </c>
       <c r="S4">
-        <v>0.001585485699818534</v>
+        <v>0.01226378332258349</v>
       </c>
       <c r="T4">
-        <v>0.001585485699818534</v>
+        <v>0.01226378332258349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I5">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J5">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N5">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O5">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P5">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q5">
-        <v>8476.742821695456</v>
+        <v>430.5194334994994</v>
       </c>
       <c r="R5">
-        <v>76290.68539525909</v>
+        <v>3874.674901495494</v>
       </c>
       <c r="S5">
-        <v>0.7022133162850072</v>
+        <v>0.6182913912676019</v>
       </c>
       <c r="T5">
-        <v>0.7022133162850072</v>
+        <v>0.6182913912676017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I6">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J6">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.965802</v>
       </c>
       <c r="O6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P6">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q6">
         <v>103.1733462940493</v>
@@ -818,10 +818,10 @@
         <v>928.5601166464439</v>
       </c>
       <c r="S6">
-        <v>0.008546879288107856</v>
+        <v>0.1481726186048138</v>
       </c>
       <c r="T6">
-        <v>0.008546879288107857</v>
+        <v>0.1481726186048138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>961.4394219999999</v>
       </c>
       <c r="I7">
-        <v>0.7149864142051174</v>
+        <v>0.83973167405618</v>
       </c>
       <c r="J7">
-        <v>0.7149864142051174</v>
+        <v>0.8397316740561799</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.477565</v>
       </c>
       <c r="O7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P7">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q7">
         <v>51.01664639638111</v>
@@ -880,10 +880,10 @@
         <v>459.14981756743</v>
       </c>
       <c r="S7">
-        <v>0.004226218632002449</v>
+        <v>0.07326766418376429</v>
       </c>
       <c r="T7">
-        <v>0.004226218632002449</v>
+        <v>0.07326766418376429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H8">
         <v>22.56815</v>
       </c>
       <c r="I8">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J8">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.450162</v>
+        <v>1.343359</v>
       </c>
       <c r="N8">
-        <v>79.350486</v>
+        <v>4.030077</v>
       </c>
       <c r="O8">
-        <v>0.9821351879331711</v>
+        <v>0.736296379391111</v>
       </c>
       <c r="P8">
-        <v>0.9821351879331711</v>
+        <v>0.7362963793911109</v>
       </c>
       <c r="Q8">
-        <v>198.9770745134334</v>
+        <v>10.10570913861667</v>
       </c>
       <c r="R8">
-        <v>1790.7936706209</v>
+        <v>90.95138224755001</v>
       </c>
       <c r="S8">
-        <v>0.01648325946626046</v>
+        <v>0.01451333546611732</v>
       </c>
       <c r="T8">
-        <v>0.01648325946626046</v>
+        <v>0.01451333546611731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H9">
         <v>22.56815</v>
       </c>
       <c r="I9">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J9">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.965802</v>
       </c>
       <c r="O9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="P9">
-        <v>0.01195390446349922</v>
+        <v>0.1764523396969075</v>
       </c>
       <c r="Q9">
         <v>2.421818267366667</v>
@@ -1004,10 +1004,10 @@
         <v>21.7963644063</v>
       </c>
       <c r="S9">
-        <v>0.0002006234083939106</v>
+        <v>0.003478099406003169</v>
       </c>
       <c r="T9">
-        <v>0.0002006234083939106</v>
+        <v>0.003478099406003169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.522716666666667</v>
+        <v>7.522716666666668</v>
       </c>
       <c r="H10">
         <v>22.56815</v>
       </c>
       <c r="I10">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="J10">
-        <v>0.01678308614616306</v>
+        <v>0.01971126827775425</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,10 +1054,10 @@
         <v>0.477565</v>
       </c>
       <c r="O10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="P10">
-        <v>0.005910907603329674</v>
+        <v>0.08725128091198156</v>
       </c>
       <c r="Q10">
         <v>1.197528728305556</v>
@@ -1066,10 +1066,10 @@
         <v>10.77775855475</v>
       </c>
       <c r="S10">
-        <v>9.920327150869218E-05</v>
+        <v>0.001719833405633767</v>
       </c>
       <c r="T10">
-        <v>9.920327150869218E-05</v>
+        <v>0.001719833405633767</v>
       </c>
     </row>
   </sheetData>
